--- a/expimp/2. Базовые единицы проекта.xlsx
+++ b/expimp/2. Базовые единицы проекта.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="БазовыеЕдиницы" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -114,8 +114,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,7 +253,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -288,7 +287,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -464,20 +462,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="43.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -491,7 +489,7 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15.75">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -505,7 +503,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15.75">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -519,7 +517,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15.75">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -533,7 +531,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15.75">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -547,7 +545,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15.75">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -561,7 +559,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15.75">
       <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
@@ -575,7 +573,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15.75">
       <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
@@ -589,117 +587,117 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1">
       <c r="A36" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1">
       <c r="A37" s="2" t="s">
         <v>2</v>
       </c>
@@ -711,12 +709,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -724,12 +722,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
